--- a/Mexico.xlsx
+++ b/Mexico.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1016,6 +1016,64 @@
         <v>9</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1023,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1199,6 +1257,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mexico.xlsx
+++ b/Mexico.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,6 +1074,644 @@
         <v>7</v>
       </c>
     </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1081,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1274,6 +1912,193 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mexico.xlsx
+++ b/Mexico.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1712,6 +1712,818 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1719,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2099,6 +2911,244 @@
         <v>10</v>
       </c>
     </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mexico.xlsx
+++ b/Mexico.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2524,6 +2524,528 @@
         <v>11</v>
       </c>
     </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>11</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2531,7 +3053,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3149,6 +3671,159 @@
         <v>23</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mexico.xlsx
+++ b/Mexico.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3046,6 +3046,992 @@
         <v>6</v>
       </c>
     </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>12</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>9</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>10</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>5</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>10</v>
+      </c>
+      <c r="I116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+      <c r="I117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>8</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>10</v>
+      </c>
+      <c r="I120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3053,7 +4039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3824,6 +4810,295 @@
         <v>15</v>
       </c>
     </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
